--- a/QA/testcases/CPR/Pharmacy/002_Phar_Patient_App_Create_PCase_Positive.xlsx
+++ b/QA/testcases/CPR/Pharmacy/002_Phar_Patient_App_Create_PCase_Positive.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27795" windowHeight="13215"/>
+    <workbookView windowWidth="28680" windowHeight="13635"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1284,11 +1284,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1297,22 +1296,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1326,15 +1309,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1347,38 +1337,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1386,7 +1346,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1407,8 +1367,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1422,9 +1406,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1455,30 +1455,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1491,7 +1467,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1503,115 +1599,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1629,7 +1617,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1706,6 +1706,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1730,6 +1745,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1747,9 +1771,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1768,36 +1794,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1815,130 +1815,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2415,7 +2415,7 @@
   <dimension ref="A1:H161"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="B158" sqref="B158"/>
+      <selection activeCell="B156" sqref="B156:G156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
